--- a/TOYOTA-Celaya/Fuentes - Toyota/Distribuidor/Ventas/VDQI/Toyota - CEL - Analisis - Ventas - VDQI.xlsx
+++ b/TOYOTA-Celaya/Fuentes - Toyota/Distribuidor/Ventas/VDQI/Toyota - CEL - Analisis - Ventas - VDQI.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KE\JMM\PROCESSES MAPPING\toyota_proceso\TOYOTA-Celaya\Fuentes - Toyota\Distribuidor\Ventas\VDQI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE29448-D5AE-4713-95CA-FCA4F592103C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F039460D-193A-4131-AA2A-C514B23951F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
+    <workbookView xWindow="-75" yWindow="120" windowWidth="19950" windowHeight="10590" activeTab="1" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
   </bookViews>
   <sheets>
     <sheet name="FTO Task List" sheetId="4" r:id="rId1"/>
+    <sheet name="FTO Data List" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="150">
   <si>
     <t>Tipo</t>
   </si>
@@ -239,9 +240,6 @@
     <t>p</t>
   </si>
   <si>
-    <t>2. En el apartado de "EDITAR VIN"  Lo mas ideal seria que automticamente al momento de insertar los ultimos 8 digitos de VIN jalara los datos del cliente que ya existen en sistema ya que se capturan manualmente y esto genera consecutivamente varios errores en la captura del VIN.</t>
-  </si>
-  <si>
     <t>Control</t>
   </si>
   <si>
@@ -394,12 +392,6 @@
   </si>
   <si>
     <t>El usuario usa el reporte para consultar e imprimir INFO, basicamente dan seguimientos a las ordenes (para cerrar puntos pendientes y para Facturar Ordendientes Pendientes). Es un proceso laborioso, se requiere que el Reporte pueda Generar INFO tipo Browser (en columnas y con fitros, e.g. Tipo de Orden, rangos de fechas , Estatus, etc.).</t>
-  </si>
-  <si>
-    <t>1. Deberia de existr la opcion de solo visualizarlas ordenes que al usuario le interese o convenga, por ejemplo en mi caso las ordenes abiertas en P. Ademas deberia de ser un documento descargable en PDF.</t>
-  </si>
-  <si>
-    <t>1. Se da click en la sucursal "02" y automaticamente despliega todas las ordenes abiertas, pendientes  o cerradas de todas las areas.Posteriormente se copia de Keepler y se pasa a un formato de excel, donde se acomoda según los datos que se requieran.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Se vuelven a capturar datos del Auto y del Cliente. Se sugiere que estos datos se tomen de los datos que se registraron en el Sistema en Procesos Previos (Asignacion Autos, CAT Clientes o Perfil Clientes).
@@ -412,6 +404,177 @@
 - Observaciones 
 - Tipo Transportista 
 - Fecha de Entrega </t>
+  </si>
+  <si>
+    <t>2. En el apartado de "EDITAR VIN"  Lo mas ideal seria que automaticamente al momento de insertar los ultimos 8 digitos de VIN jalara los datos del cliente que ya existen en sistema ya que se capturan manualmente y esto genera consecutivamente varios errores en la captura del VIN.</t>
+  </si>
+  <si>
+    <t>T - Texto
+N - Entero
+D - Decimal
+F - Fecha
+H - Hora
+FH - F &amp; H
+S - Flag / ST
+C - Catalogo
+R - Control</t>
+  </si>
+  <si>
+    <t>V - Ventas
+S - Servicio</t>
+  </si>
+  <si>
+    <t>A - A,B,C
+V - View</t>
+  </si>
+  <si>
+    <t>K - K75
+T - Toyota
+D - DISTR</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Type Aux</t>
+  </si>
+  <si>
+    <t>TBL - Entity</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>ID Task</t>
+  </si>
+  <si>
+    <t>K75</t>
+  </si>
+  <si>
+    <t>K75 - Ref</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>APP - Ref</t>
+  </si>
+  <si>
+    <t>TOY</t>
+  </si>
+  <si>
+    <t>TOY Ref</t>
+  </si>
+  <si>
+    <t>DISTR</t>
+  </si>
+  <si>
+    <t>DISTR - Ref</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>Cobertura</t>
+  </si>
+  <si>
+    <t>DMS - Ref</t>
+  </si>
+  <si>
+    <t>A, V</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>V - VQ - 001</t>
+  </si>
+  <si>
+    <t>Ubicacion</t>
+  </si>
+  <si>
+    <t>Estado Final</t>
+  </si>
+  <si>
+    <t>Numeros Llaves</t>
+  </si>
+  <si>
+    <t>Observaciones VDQI</t>
+  </si>
+  <si>
+    <t>Asesor Venta Asignado</t>
+  </si>
+  <si>
+    <t>Tipo Transportista</t>
+  </si>
+  <si>
+    <t>Fecha Real Entrega</t>
+  </si>
+  <si>
+    <t>T, CAT</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>VDQI</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Fecha Real de Entrega (Sale de la Agencia)</t>
+  </si>
+  <si>
+    <t>Vendedor Asignado … Verificar si No esta ya en alguna opcion</t>
+  </si>
+  <si>
+    <t>Observaciones especificas del Area</t>
+  </si>
+  <si>
+    <t>Juegos de Llaves del Vehiculo</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Ultima Ubicacion Fisica previo a su Salida del Investario  (Patio, Piso, Bodega, Fuera INV,  etc.</t>
+  </si>
+  <si>
+    <t>Ubicacion Fisica (Patio, Piso, Bodega, Fuera Inventario,  etc.)</t>
+  </si>
+  <si>
+    <t>OLOA</t>
+  </si>
+  <si>
+    <t>Editar VIN</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>1. Se da click en la sucursal "02" y automaticamente despliega todas las ordenes abiertas, pendientes  o cerradas de todas las areas. Posteriormente se copia de Keepler y se pasa a un formato de excel, donde se acomoda según los datos que se requieran.</t>
+  </si>
+  <si>
+    <t>1. Deberia de existr la opcion de solo visualizarlas ordenes que al usuario le interese o convenga, por ejemplo en mi caso las ordenes abiertas en P.  Ademas deberia de ser un documento descargable en PDF.</t>
   </si>
 </sst>
 </file>
@@ -486,7 +649,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,6 +746,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -596,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -649,6 +824,9 @@
     <xf numFmtId="49" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -664,9 +842,52 @@
     <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,7 +906,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -983,13 +1204,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D038D82-D5B0-455D-8135-9E8D2F22CF22}">
   <dimension ref="B2:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="X1" sqref="X1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="Z7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
@@ -1018,10 +1240,11 @@
     <col min="25" max="25" width="26.140625" style="3" customWidth="1"/>
     <col min="26" max="26" width="48.85546875" style="3" customWidth="1"/>
     <col min="27" max="27" width="29.5703125" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="3"/>
+    <col min="28" max="28" width="12.7109375" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1071,43 +1294,43 @@
       </c>
     </row>
     <row r="3" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="21" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="20" t="s">
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
     </row>
     <row r="4" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1183,13 +1406,13 @@
         <v>31</v>
       </c>
       <c r="Z4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AA4" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="AB4" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
@@ -1235,7 +1458,7 @@
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
     </row>
-    <row r="6" spans="2:28" ht="300" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" ht="315" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
@@ -1253,7 +1476,7 @@
         <v>45</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>46</v>
@@ -1272,19 +1495,21 @@
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y6" s="15"/>
       <c r="Z6" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB6" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" spans="2:28" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
@@ -1294,17 +1519,17 @@
         <v>44</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>43</v>
@@ -1324,14 +1549,14 @@
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y7" s="15"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
     </row>
-    <row r="8" spans="2:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>39</v>
       </c>
@@ -1339,17 +1564,17 @@
         <v>44</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>43</v>
@@ -1369,7 +1594,7 @@
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y8" s="15"/>
       <c r="Z8" s="16"/>
@@ -1384,17 +1609,17 @@
         <v>44</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>43</v>
@@ -1427,20 +1652,20 @@
         <v>44</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -1456,14 +1681,14 @@
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="23" t="s">
-        <v>96</v>
+      <c r="Z10" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
@@ -1476,17 +1701,17 @@
         <v>44</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>43</v>
@@ -1519,17 +1744,17 @@
         <v>44</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>43</v>
@@ -1562,17 +1787,17 @@
         <v>44</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>43</v>
@@ -1605,17 +1830,17 @@
         <v>44</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>43</v>
@@ -1648,17 +1873,17 @@
         <v>44</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>43</v>
@@ -1691,17 +1916,17 @@
         <v>44</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>43</v>
@@ -1734,17 +1959,17 @@
         <v>44</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>43</v>
@@ -1777,17 +2002,17 @@
         <v>44</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>43</v>
@@ -1820,17 +2045,17 @@
         <v>44</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>43</v>
@@ -1899,4 +2124,751 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9D20ED-C103-443F-AABD-0E321AF24F2B}">
+  <dimension ref="B2:X21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="52.42578125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="24" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="24" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="24" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="24" customWidth="1"/>
+    <col min="18" max="18" width="8" style="24" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="24" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="26"/>
+    <col min="21" max="21" width="11.7109375" style="26" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="C2" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="U2" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="S4" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+    </row>
+    <row r="5" spans="2:24" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+    </row>
+    <row r="6" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="S6" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+    </row>
+    <row r="7" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+    </row>
+    <row r="8" spans="2:24" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+    </row>
+    <row r="9" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+    </row>
+    <row r="10" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+    </row>
+    <row r="11" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+    </row>
+    <row r="12" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+    </row>
+    <row r="13" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+    </row>
+    <row r="14" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+    </row>
+    <row r="15" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+    </row>
+    <row r="16" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+    </row>
+    <row r="17" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+    </row>
+    <row r="18" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+    </row>
+    <row r="19" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+    </row>
+    <row r="20" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+    </row>
+    <row r="21" spans="2:24" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>